--- a/sravnenie.xlsx
+++ b/sravnenie.xlsx
@@ -100,6 +100,21 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Сортировка вставками</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
     </c:title>
@@ -123,6 +138,57 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$B$3:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.55700000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2130000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.121</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.7450000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.6639999999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.4960000000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.116</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>57.343000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Лист1!$A$3:$A$16</c:f>
@@ -186,28 +252,55 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="47953792"/>
-        <c:axId val="65667072"/>
+        <c:axId val="105493248"/>
+        <c:axId val="105495168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="47953792"/>
+        <c:axId val="105493248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Время работы</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65667072"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="105495168"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
+        <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65667072"/>
+        <c:axId val="105495168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -215,6 +308,21 @@
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Количество элементов</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
@@ -222,16 +330,305 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47953792"/>
+        <c:crossAx val="105493248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Сортировка подсчетом</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
-    </c:legend>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$2:$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Количество элементов 10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$C$3:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.5999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.114</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.22800000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$A$3:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5000000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15000000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>30000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="67316352"/>
+        <c:axId val="67318528"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="67316352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Время работы</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="67318528"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="67318528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Количество элементов</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="67316352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -249,15 +646,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -271,6 +668,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -568,8 +995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B16"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,7 +1052,7 @@
         <v>2E-3</v>
       </c>
       <c r="C5">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -633,10 +1060,10 @@
         <v>10000</v>
       </c>
       <c r="B6">
-        <v>0.20399999999999999</v>
+        <v>0.14899999999999999</v>
       </c>
       <c r="C6">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -644,10 +1071,10 @@
         <v>20000</v>
       </c>
       <c r="B7">
-        <v>0.58899999999999997</v>
+        <v>0.55700000000000005</v>
       </c>
       <c r="C7">
-        <v>2E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -655,10 +1082,10 @@
         <v>30000</v>
       </c>
       <c r="B8">
-        <v>1.2749999999999999</v>
+        <v>1.2130000000000001</v>
       </c>
       <c r="C8">
-        <v>2E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -666,10 +1093,10 @@
         <v>40000</v>
       </c>
       <c r="B9">
-        <v>1.923</v>
+        <v>2.121</v>
       </c>
       <c r="C9">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -677,10 +1104,10 @@
         <v>50000</v>
       </c>
       <c r="B10">
-        <v>3.1280000000000001</v>
+        <v>3.3</v>
       </c>
       <c r="C10">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -688,10 +1115,10 @@
         <v>60000</v>
       </c>
       <c r="B11">
-        <v>4.4119999999999999</v>
+        <v>4.7450000000000001</v>
       </c>
       <c r="C11">
-        <v>1.4999999999999999E-2</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -699,10 +1126,10 @@
         <v>70000</v>
       </c>
       <c r="B12">
-        <v>5.9619999999999997</v>
+        <v>6.6639999999999997</v>
       </c>
       <c r="C12">
-        <v>1.4999999999999999E-2</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -710,10 +1137,10 @@
         <v>80000</v>
       </c>
       <c r="B13">
-        <v>7.6420000000000003</v>
+        <v>8.4960000000000004</v>
       </c>
       <c r="C13">
-        <v>1.6E-2</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -721,10 +1148,10 @@
         <v>90000</v>
       </c>
       <c r="B14">
-        <v>9.6140000000000008</v>
+        <v>10.6</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -732,10 +1159,10 @@
         <v>100000</v>
       </c>
       <c r="B15">
-        <v>11.868</v>
+        <v>13.116</v>
       </c>
       <c r="C15">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
